--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_04.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_04.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OPEN DATA\Datasets\1. Datasets&amp; BusinessDoc_Manual\Ferry\3. Ferry Ridership\SI Ferry Ridership by Month\2020 SIF Ridership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77F93D-1116-4809-8516-9169BB6F0AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="WEEKDAY - WEEKEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -888,801 +897,801 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="8" max="9" width="9.109375" style="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="38">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="38">
         <v>43941</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="2:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="2:7" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="str">
-        <f t="shared" ref="B4:B33" si="0">CHOOSE(WEEKDAY(C4),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="str">
+        <f t="shared" ref="B6:B35" si="0">CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C6" s="4">
         <v>43922</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D6" s="28">
         <v>4273</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E6" s="28">
         <v>4167</v>
       </c>
-      <c r="F4" s="28">
-        <f>SUM(D4:E4)</f>
+      <c r="F6" s="28">
+        <f>SUM(D6:E6)</f>
         <v>8440</v>
       </c>
-      <c r="G4" s="1">
-        <f>D4-E4</f>
+      <c r="G6" s="1">
+        <f>D6-E6</f>
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="str">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C7" s="4">
         <v>43923</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D7" s="28">
         <v>4125</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E7" s="28">
         <v>3916</v>
       </c>
-      <c r="F5" s="28">
-        <f t="shared" ref="F5:F33" si="1">SUM(D5:E5)</f>
+      <c r="F7" s="28">
+        <f t="shared" ref="F7:F35" si="1">SUM(D7:E7)</f>
         <v>8041</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G33" si="2">D5-E5</f>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G35" si="2">D7-E7</f>
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="str">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C8" s="4">
         <v>43924</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D8" s="28">
         <v>3981</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E8" s="28">
         <v>3821</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F8" s="28">
         <f t="shared" si="1"/>
         <v>7802</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="str">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="4">
         <v>43925</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D9" s="28">
         <v>2545</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E9" s="28">
         <v>2317</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F9" s="28">
         <f t="shared" si="1"/>
         <v>4862</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="str">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C10" s="4">
         <v>43926</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D10" s="28">
         <v>2259</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E10" s="28">
         <v>2034</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F10" s="28">
         <f t="shared" si="1"/>
         <v>4293</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="str">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C11" s="4">
         <v>43927</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D11" s="28">
         <v>3724</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E11" s="28">
         <v>3626</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
         <v>7350</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="str">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C12" s="4">
         <v>43928</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D12" s="28">
         <v>3653</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E12" s="28">
         <v>3469</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F12" s="28">
         <f t="shared" si="1"/>
         <v>7122</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="str">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C13" s="4">
         <v>43929</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D13" s="28">
         <v>2767</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E13" s="28">
         <v>3478</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F13" s="28">
         <f t="shared" si="1"/>
         <v>6245</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>-711</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="str">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C14" s="4">
         <v>43930</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D14" s="28">
         <v>2300</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E14" s="28">
         <v>3256</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F14" s="28">
         <f t="shared" si="1"/>
         <v>5556</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>-956</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="str">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C15" s="4">
         <v>43931</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D15" s="28">
         <v>2171</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E15" s="28">
         <v>3298</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F15" s="28">
         <f t="shared" si="1"/>
         <v>5469</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>-1127</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="str">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C16" s="4">
         <v>43932</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D16" s="28">
         <v>1659</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E16" s="28">
         <v>2453</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F16" s="28">
         <f t="shared" si="1"/>
         <v>4112</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="2"/>
         <v>-794</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="str">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C17" s="4">
         <v>43933</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D17" s="28">
         <v>1494</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E17" s="28">
         <v>2078</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F17" s="28">
         <f t="shared" si="1"/>
         <v>3572</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="2"/>
         <v>-584</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="str">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C18" s="4">
         <v>43934</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D18" s="28">
         <v>2209</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E18" s="28">
         <v>3049</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F18" s="28">
         <f t="shared" si="1"/>
         <v>5258</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="2"/>
         <v>-840</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="str">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C19" s="4">
         <v>43935</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D19" s="28">
         <v>2593</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E19" s="28">
         <v>3691</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F19" s="28">
         <f t="shared" si="1"/>
         <v>6284</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>-1098</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="str">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>43936</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D20" s="28">
         <v>2761</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E20" s="28">
         <v>3649</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F20" s="28">
         <f t="shared" si="1"/>
         <v>6410</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="2"/>
         <v>-888</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="str">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C21" s="4">
         <v>43937</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D21" s="28">
         <v>2794</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E21" s="28">
         <v>3696</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F21" s="28">
         <f t="shared" si="1"/>
         <v>6490</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="2"/>
         <v>-902</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="str">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C22" s="4">
         <v>43938</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D22" s="28">
         <v>2780</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E22" s="28">
         <v>3709</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F22" s="28">
         <f t="shared" si="1"/>
         <v>6489</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="2"/>
         <v>-929</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="str">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C23" s="4">
         <v>43939</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D23" s="28">
         <v>1700</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E23" s="28">
         <v>2307</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F23" s="28">
         <f t="shared" si="1"/>
         <v>4007</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="2"/>
         <v>-607</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="str">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C24" s="4">
         <v>43940</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D24" s="28">
         <v>1769</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E24" s="28">
         <v>2263</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F24" s="28">
         <f t="shared" si="1"/>
         <v>4032</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="1">
         <f t="shared" si="2"/>
         <v>-494</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="str">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C25" s="4">
         <v>43941</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D25" s="28">
         <v>2696</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E25" s="28">
         <v>3805</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F25" s="28">
         <f t="shared" si="1"/>
         <v>6501</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="2"/>
         <v>-1109</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="str">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C26" s="4">
         <v>43942</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D26" s="28">
         <v>2585</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E26" s="28">
         <v>3396</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F26" s="28">
         <f t="shared" si="1"/>
         <v>5981</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="2"/>
         <v>-811</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="str">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C27" s="4">
         <v>43943</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D27" s="28">
         <v>2965</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E27" s="28">
         <v>3853</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F27" s="28">
         <f t="shared" si="1"/>
         <v>6818</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="2"/>
         <v>-888</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="str">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C28" s="4">
         <v>43944</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D28" s="28">
         <v>2619</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E28" s="28">
         <v>3743</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F28" s="28">
         <f t="shared" si="1"/>
         <v>6362</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G28" s="1">
         <f t="shared" si="2"/>
         <v>-1124</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="str">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C29" s="4">
         <v>43945</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D29" s="28">
         <v>2790</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E29" s="28">
         <v>3602</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F29" s="28">
         <f t="shared" si="1"/>
         <v>6392</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G29" s="1">
         <f t="shared" si="2"/>
         <v>-812</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="str">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C30" s="4">
         <v>43946</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D30" s="28">
         <v>2354</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E30" s="28">
         <v>2959</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F30" s="28">
         <f t="shared" si="1"/>
         <v>5313</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G30" s="1">
         <f t="shared" si="2"/>
         <v>-605</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="str">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C31" s="4">
         <v>43947</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D31" s="28">
         <v>1656</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E31" s="28">
         <v>2078</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F31" s="28">
         <f t="shared" si="1"/>
         <v>3734</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G31" s="1">
         <f t="shared" si="2"/>
         <v>-422</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="str">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C32" s="4">
         <v>43948</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D32" s="28">
         <v>2879</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E32" s="28">
         <v>3820</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F32" s="28">
         <f t="shared" si="1"/>
         <v>6699</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G32" s="1">
         <f t="shared" si="2"/>
         <v>-941</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="str">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C33" s="4">
         <v>43949</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D33" s="28">
         <v>3279</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E33" s="28">
         <v>4120</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F33" s="28">
         <f t="shared" si="1"/>
         <v>7399</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G33" s="1">
         <f t="shared" si="2"/>
         <v>-841</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="str">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C34" s="4">
         <v>43950</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D34" s="28">
         <v>3128</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E34" s="28">
         <v>3993</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F34" s="28">
         <f t="shared" si="1"/>
         <v>7121</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G34" s="1">
         <f t="shared" si="2"/>
         <v>-865</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="19" t="str">
+    <row r="35" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C35" s="15">
         <v>43951</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D35" s="29">
         <v>2836</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E35" s="29">
         <v>3640</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F35" s="29">
         <f t="shared" si="1"/>
         <v>6476</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="2"/>
         <v>-804</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="25" t="s">
+    <row r="36" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="26">
-        <f>SUM(D4:D33)</f>
+      <c r="D36" s="26">
+        <f>SUM(D6:D35)</f>
         <v>81344</v>
       </c>
-      <c r="E34" s="26">
-        <f>SUM(E4:E33)</f>
+      <c r="E36" s="26">
+        <f>SUM(E6:E35)</f>
         <v>99286</v>
       </c>
-      <c r="F34" s="27">
-        <f>SUM(F4:F33)</f>
+      <c r="F36" s="27">
+        <f>SUM(F6:F35)</f>
         <v>180630</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="35" t="s">
+    <row r="39" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37">
-        <f>F34</f>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37">
+        <f>F36</f>
         <v>180630</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F33" formulaRange="1"/>
+    <ignoredError sqref="F6:F35" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" style="1"/>
-    <col min="4" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" style="1"/>
+    <col min="4" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.7109375" style="1"/>
+    <col min="8" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1700,7 @@
       <c r="E3" s="43"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:13" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1726,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="str">
         <f t="shared" ref="B5:B26" si="0">CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
@@ -1746,7 +1755,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1775,7 +1784,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1804,7 +1813,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1833,7 +1842,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -1862,7 +1871,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -1891,7 +1900,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -1920,7 +1929,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -1949,7 +1958,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -1978,7 +1987,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -2007,7 +2016,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -2036,7 +2045,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -2065,7 +2074,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -2094,7 +2103,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -2123,7 +2132,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -2152,7 +2161,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -2181,7 +2190,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -2210,7 +2219,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
@@ -2239,7 +2248,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
@@ -2268,7 +2277,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
@@ -2297,7 +2306,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
@@ -2326,7 +2335,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
@@ -2355,7 +2364,7 @@
       <c r="L26" s="17"/>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
@@ -2378,7 +2387,7 @@
       <c r="L27" s="17"/>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="18"/>
@@ -2386,7 +2395,7 @@
       <c r="L28" s="17"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="45" t="s">
         <v>13</v>
       </c>
@@ -2401,7 +2410,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="47" t="s">
         <v>12</v>
       </c>
@@ -2416,17 +2425,17 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J31" s="18"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J32" s="18"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +2447,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2467,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="str">
         <f t="shared" ref="B35:B42" si="3">CHOOSE(WEEKDAY(C35),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>SAT</v>
@@ -2481,7 +2490,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2504,7 +2513,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2527,7 +2536,7 @@
         <v>-794</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2550,7 +2559,7 @@
         <v>-584</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2573,7 +2582,7 @@
         <v>-607</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2596,7 +2605,7 @@
         <v>-494</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2619,7 +2628,7 @@
         <v>-605</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="23" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2642,7 +2651,7 @@
         <v>-422</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="24" t="s">
         <v>11</v>
       </c>
@@ -2659,8 +2668,8 @@
         <v>33925</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="40" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>4573.5</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="40" t="s">
         <v>15</v>
       </c>
@@ -2701,6 +2710,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056AE8379B00F7343AA85C9CCF3ABC79C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ed5a08c4ea4bafe7608c7a0bbf74949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="670d3029-f9df-404e-98fc-7004dcdec636" xmlns:ns3="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f6b6dc1f77d7f192bee01dd38b44bce" ns2:_="" ns3:_="">
     <xsd:import namespace="670d3029-f9df-404e-98fc-7004dcdec636"/>
@@ -2879,29 +2903,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB0EBEE-5A2D-4066-ACD8-1EFCC6FD3548}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8148954-89B6-424B-B73F-7A23DC129F2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7E4D-9021-4988-8ED0-234CE30D3ADA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCB7E4D-9021-4988-8ED0-234CE30D3ADA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8148954-89B6-424B-B73F-7A23DC129F2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCB0EBEE-5A2D-4066-ACD8-1EFCC6FD3548}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>